--- a/Plantillas/Entrega 3/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 3/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C11052-52C3-4939-A1C1-CBA86BB976D6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82A2EF5-1C1D-440D-8058-F8D127340117}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1236,7 @@
         <v>111</v>
       </c>
       <c r="F17" s="11">
-        <v>3.15</v>
+        <v>5.15</v>
       </c>
       <c r="G17" s="20">
         <v>0.4</v>
@@ -1260,7 +1260,7 @@
         <v>111</v>
       </c>
       <c r="F18" s="11">
-        <v>2.16</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G18" s="20">
         <v>0.4</v>

--- a/Plantillas/Entrega 3/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 3/Plantilla de Casos de Uso .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82A2EF5-1C1D-440D-8058-F8D127340117}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E5F8F1-0900-49D7-9433-A4B7D79A4C61}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -871,7 +871,7 @@
   <dimension ref="B1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1260,7 @@
         <v>111</v>
       </c>
       <c r="F18" s="11">
-        <v>16.600000000000001</v>
+        <v>14.56</v>
       </c>
       <c r="G18" s="20">
         <v>0.4</v>
@@ -1306,7 +1306,7 @@
         <v>111</v>
       </c>
       <c r="F20" s="11">
-        <v>2.25</v>
+        <v>11.75</v>
       </c>
       <c r="G20" s="20">
         <v>0.4</v>

--- a/Plantillas/Entrega 3/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 3/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Equipo\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E5F8F1-0900-49D7-9433-A4B7D79A4C61}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5A13DC-A43B-4801-9FD3-E8D6E9EDEF62}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$I$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -536,10 +536,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -871,10 +871,10 @@
   <dimension ref="B1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
@@ -1164,7 +1164,7 @@
         <v>111</v>
       </c>
       <c r="F14" s="11">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G14" s="20">
         <v>0.4</v>
@@ -1236,7 +1236,7 @@
         <v>111</v>
       </c>
       <c r="F17" s="11">
-        <v>5.15</v>
+        <v>23.5</v>
       </c>
       <c r="G17" s="20">
         <v>0.4</v>
@@ -1657,7 +1657,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>

--- a/Plantillas/Entrega 3/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 3/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Equipo\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5A13DC-A43B-4801-9FD3-E8D6E9EDEF62}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AD3045-CBCD-48ED-994D-26D0BEC37CAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,10 +536,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -870,11 +870,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
@@ -1062,7 +1062,7 @@
         <v>111</v>
       </c>
       <c r="F10" s="11">
-        <v>3.75</v>
+        <v>9.75</v>
       </c>
       <c r="G10" s="20">
         <v>0.4</v>
@@ -1114,7 +1114,7 @@
         <v>111</v>
       </c>
       <c r="F12" s="11">
-        <v>2.29</v>
+        <v>16.29</v>
       </c>
       <c r="G12" s="20">
         <v>0.4</v>
@@ -1657,7 +1657,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>
